--- a/6Timetable/data/20210528/●３会場６５歳予約枠.xlsx
+++ b/6Timetable/data/20210528/●３会場６５歳予約枠.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="会場" sheetId="8" r:id="rId1"/>
     <sheet name="稼働日" sheetId="11" r:id="rId2"/>
     <sheet name="ダミー稼働日" sheetId="12" r:id="rId3"/>
+    <sheet name="ダミー稼働日 (2)" sheetId="13" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="40">
   <si>
     <t>箕面市瀬川３丁目２－５</t>
   </si>
@@ -196,6 +197,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>o</t>
     </r>
@@ -231,17 +234,32 @@
   <si>
     <t>6/02～6/20_西南生涯学習センター(65歳以上)</t>
   </si>
+  <si>
+    <t>6/02～6/20_総合保健福祉センター(65歳以上)</t>
+  </si>
+  <si>
+    <t>6/02～6/20_東生涯学習センター(65歳以上)</t>
+  </si>
+  <si>
+    <t>7/14～8/01_総合保健福祉センター(65歳以上)</t>
+  </si>
+  <si>
+    <t>7/14～8/01_東生涯学習センター(65歳以上)</t>
+  </si>
+  <si>
+    <t>7/14～8/01_西南生涯学習センター(65歳以上)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="[&lt;=99999999]####\-####;\(00\)\ ####\-####"/>
-    <numFmt numFmtId="178" formatCode="h:mm;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="h:mm;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,7 +276,6 @@
     </font>
     <font>
       <sz val="6"/>
-      <color auto="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <scheme val="minor"/>
@@ -273,9 +290,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color auto="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -288,7 +318,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,61 +336,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,13 +596,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -639,6 +669,39 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="11" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="11" borderId="8" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="12" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="13" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="14" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -654,13 +717,13 @@
     <xf numFmtId="177" fontId="1" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="4" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="11" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="4" fillId="11" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="11" borderId="8" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="4" fillId="11" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="12" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -669,40 +732,7 @@
     <xf numFmtId="177" fontId="1" fillId="13" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="14" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="11" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="11" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="12" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="13" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="14" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="4" fillId="14" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -714,13 +744,13 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1">
@@ -740,18 +770,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 3" xfId="2"/>
-    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1045,14 +1076,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
@@ -1064,7 +1095,7 @@
     <col min="9" max="10" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1096,9 +1127,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1">
-      <c r="A2" s="3" t="str">
-        <v>6/02～6/20_総合保健福祉センター(65歳以上)</v>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -1126,9 +1157,9 @@
         <v>2021-06-02T16:40:00.000+9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1">
-      <c r="A3" s="3" t="str">
-        <v>6/02～6/20_東生涯学習センター(65歳以上)</v>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -1156,9 +1187,9 @@
         <v>2021-06-02T16:40:00.000+9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1">
-      <c r="A4" s="3" t="str">
-        <v>6/02～6/20_西南生涯学習センター(65歳以上)</v>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -1186,9 +1217,9 @@
         <v>2021-06-02T16:40:00.000+9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1">
-      <c r="A5" s="3" t="str">
-        <v>6/23～7/11_総合保健福祉センター(65歳以上)</v>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -1216,9 +1247,9 @@
         <v>2021-06-23T16:40:00.000+9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1">
-      <c r="A6" s="3" t="str">
-        <v>6/23～7/11_東生涯学習センター(65歳以上)</v>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -1246,9 +1277,9 @@
         <v>2021-06-23T16:40:00.000+9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1">
-      <c r="A7" s="3" t="str">
-        <v>6/23～7/11_西南生涯学習センター(65歳以上)</v>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>0</v>
@@ -1276,9 +1307,9 @@
         <v>2021-06-23T16:40:00.000+9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1">
-      <c r="A8" s="3" t="str">
-        <v>7/14～8/01_総合保健福祉センター(65歳以上)</v>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -1306,9 +1337,9 @@
         <v>2021-07-14T16:40:00.000+9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1">
-      <c r="A9" s="3" t="str">
-        <v>7/14～8/01_東生涯学習センター(65歳以上)</v>
+    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>4</v>
@@ -1336,9 +1367,9 @@
         <v>2021-07-14T16:40:00.000+9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1">
-      <c r="A10" s="3" t="str">
-        <v>7/14～8/01_西南生涯学習センター(65歳以上)</v>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
@@ -1369,34 +1400,36 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="10" width="8.75" customWidth="1"/>
-    <col min="11" max="15" width="7.25" customWidth="1"/>
-    <col min="16" max="19" width="15.75" customWidth="1"/>
-    <col min="20" max="20" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="54" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
@@ -1458,15 +1491,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1">
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12">
         <v>2</v>
       </c>
       <c r="B2" s="21">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="str">
-        <v>6/02～6/20_総合保健福祉センター(65歳以上)</v>
+      <c r="C2" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="D2" s="33" t="b">
         <v>1</v>
@@ -1521,15 +1554,15 @@
         <v>2021-06-02T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1">
+    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="25" t="str">
-        <v>6/02～6/20_総合保健福祉センター(65歳以上)</v>
+      <c r="C3" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="D3" s="34" t="b">
         <v>1</v>
@@ -1584,15 +1617,15 @@
         <v>2021-06-03T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1">
+    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="25" t="str">
-        <v>6/02～6/20_総合保健福祉センター(65歳以上)</v>
+      <c r="C4" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="D4" s="34" t="b">
         <v>1</v>
@@ -1647,15 +1680,15 @@
         <v>2021-06-09T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="1" customFormat="1">
+    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>2</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="25" t="str">
-        <v>6/02～6/20_総合保健福祉センター(65歳以上)</v>
+      <c r="C5" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="D5" s="34" t="b">
         <v>1</v>
@@ -1710,15 +1743,15 @@
         <v>2021-06-10T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="1" customFormat="1">
+    <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>2</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="25" t="str">
-        <v>6/02～6/20_総合保健福祉センター(65歳以上)</v>
+      <c r="C6" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="D6" s="34" t="b">
         <v>1</v>
@@ -1773,15 +1806,15 @@
         <v>2021-06-16T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="1" customFormat="1">
+    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>2</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
       </c>
-      <c r="C7" s="25" t="str">
-        <v>6/02～6/20_総合保健福祉センター(65歳以上)</v>
+      <c r="C7" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="D7" s="34" t="b">
         <v>1</v>
@@ -1836,15 +1869,15 @@
         <v>2021-06-17T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="1" customFormat="1">
+    <row r="8" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>2</v>
       </c>
       <c r="B8" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="26" t="str">
-        <v>6/02～6/20_総合保健福祉センター(65歳以上)</v>
+      <c r="C8" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="D8" s="35" t="b">
         <v>1</v>
@@ -1899,15 +1932,15 @@
         <v>2021-06-23T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="1" customFormat="1">
+    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>2</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
       </c>
-      <c r="C9" s="26" t="str">
-        <v>6/02～6/20_総合保健福祉センター(65歳以上)</v>
+      <c r="C9" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="D9" s="35" t="b">
         <v>1</v>
@@ -1962,15 +1995,15 @@
         <v>2021-06-24T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="1" customFormat="1">
+    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>2</v>
       </c>
       <c r="B10" s="3">
         <v>9</v>
       </c>
-      <c r="C10" s="26" t="str">
-        <v>6/02～6/20_総合保健福祉センター(65歳以上)</v>
+      <c r="C10" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="D10" s="35" t="b">
         <v>1</v>
@@ -2025,15 +2058,15 @@
         <v>2021-06-30T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="1" customFormat="1">
+    <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>2</v>
       </c>
       <c r="B11" s="3">
         <v>10</v>
       </c>
-      <c r="C11" s="26" t="str">
-        <v>6/02～6/20_総合保健福祉センター(65歳以上)</v>
+      <c r="C11" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="D11" s="35" t="b">
         <v>1</v>
@@ -2088,15 +2121,15 @@
         <v>2021-07-01T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="1" customFormat="1">
+    <row r="12" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>2</v>
       </c>
       <c r="B12" s="3">
         <v>11</v>
       </c>
-      <c r="C12" s="26" t="str">
-        <v>6/02～6/20_総合保健福祉センター(65歳以上)</v>
+      <c r="C12" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="D12" s="35" t="b">
         <v>1</v>
@@ -2151,15 +2184,15 @@
         <v>2021-07-07T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="1" customFormat="1">
+    <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>2</v>
       </c>
       <c r="B13" s="3">
         <v>12</v>
       </c>
-      <c r="C13" s="26" t="str">
-        <v>6/02～6/20_総合保健福祉センター(65歳以上)</v>
+      <c r="C13" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="D13" s="35" t="b">
         <v>1</v>
@@ -2214,15 +2247,15 @@
         <v>2021-07-08T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="1" customFormat="1">
+    <row r="14" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>2</v>
       </c>
       <c r="B14" s="3">
         <v>13</v>
       </c>
-      <c r="C14" s="27" t="str">
-        <v>6/02～6/20_総合保健福祉センター(65歳以上)</v>
+      <c r="C14" s="27" t="s">
+        <v>35</v>
       </c>
       <c r="D14" s="36" t="b">
         <v>1</v>
@@ -2277,15 +2310,15 @@
         <v>2021-06-05T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="1" customFormat="1">
+    <row r="15" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>2</v>
       </c>
       <c r="B15" s="3">
         <v>14</v>
       </c>
-      <c r="C15" s="27" t="str">
-        <v>6/02～6/20_総合保健福祉センター(65歳以上)</v>
+      <c r="C15" s="27" t="s">
+        <v>35</v>
       </c>
       <c r="D15" s="36" t="b">
         <v>1</v>
@@ -2340,15 +2373,15 @@
         <v>2021-06-12T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="1" customFormat="1">
+    <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>2</v>
       </c>
       <c r="B16" s="3">
         <v>15</v>
       </c>
-      <c r="C16" s="27" t="str">
-        <v>6/02～6/20_総合保健福祉センター(65歳以上)</v>
+      <c r="C16" s="27" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="36" t="b">
         <v>1</v>
@@ -2403,15 +2436,15 @@
         <v>2021-06-19T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="1" customFormat="1">
+    <row r="17" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
         <v>2</v>
       </c>
       <c r="B17" s="3">
         <v>16</v>
       </c>
-      <c r="C17" s="28" t="str">
-        <v>6/02～6/20_総合保健福祉センター(65歳以上)</v>
+      <c r="C17" s="28" t="s">
+        <v>35</v>
       </c>
       <c r="D17" s="37" t="b">
         <v>1</v>
@@ -2466,15 +2499,15 @@
         <v>2021-06-26T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="1" customFormat="1">
+    <row r="18" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
         <v>2</v>
       </c>
       <c r="B18" s="3">
         <v>17</v>
       </c>
-      <c r="C18" s="28" t="str">
-        <v>6/02～6/20_総合保健福祉センター(65歳以上)</v>
+      <c r="C18" s="28" t="s">
+        <v>35</v>
       </c>
       <c r="D18" s="37" t="b">
         <v>1</v>
@@ -2529,15 +2562,15 @@
         <v>2021-07-03T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="1" customFormat="1">
+    <row r="19" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="13">
         <v>2</v>
       </c>
       <c r="B19" s="3">
         <v>18</v>
       </c>
-      <c r="C19" s="28" t="str">
-        <v>6/02～6/20_総合保健福祉センター(65歳以上)</v>
+      <c r="C19" s="28" t="s">
+        <v>35</v>
       </c>
       <c r="D19" s="37" t="b">
         <v>1</v>
@@ -2592,15 +2625,15 @@
         <v>2021-07-10T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="1" customFormat="1">
+    <row r="20" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13">
         <v>2</v>
       </c>
       <c r="B20" s="3">
         <v>19</v>
       </c>
-      <c r="C20" s="29" t="str">
-        <v>6/02～6/20_総合保健福祉センター(65歳以上)</v>
+      <c r="C20" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="D20" s="38" t="b">
         <v>1</v>
@@ -2659,15 +2692,15 @@
         <v>2021-06-06T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="1" customFormat="1">
+    <row r="21" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13">
         <v>2</v>
       </c>
       <c r="B21" s="3">
         <v>20</v>
       </c>
-      <c r="C21" s="29" t="str">
-        <v>6/02～6/20_総合保健福祉センター(65歳以上)</v>
+      <c r="C21" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="D21" s="38" t="b">
         <v>1</v>
@@ -2726,15 +2759,15 @@
         <v>2021-06-13T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="1" customFormat="1">
+    <row r="22" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="13">
         <v>2</v>
       </c>
       <c r="B22" s="3">
         <v>21</v>
       </c>
-      <c r="C22" s="29" t="str">
-        <v>6/02～6/20_総合保健福祉センター(65歳以上)</v>
+      <c r="C22" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="D22" s="38" t="b">
         <v>1</v>
@@ -2793,15 +2826,15 @@
         <v>2021-06-20T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="1" customFormat="1">
+    <row r="23" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="13">
         <v>2</v>
       </c>
       <c r="B23" s="3">
         <v>22</v>
       </c>
-      <c r="C23" s="30" t="str">
-        <v>6/02～6/20_総合保健福祉センター(65歳以上)</v>
+      <c r="C23" s="30" t="s">
+        <v>35</v>
       </c>
       <c r="D23" s="39" t="b">
         <v>1</v>
@@ -2860,15 +2893,15 @@
         <v>2021-06-27T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="1" customFormat="1">
+    <row r="24" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13">
         <v>2</v>
       </c>
       <c r="B24" s="3">
         <v>23</v>
       </c>
-      <c r="C24" s="30" t="str">
-        <v>6/02～6/20_総合保健福祉センター(65歳以上)</v>
+      <c r="C24" s="30" t="s">
+        <v>35</v>
       </c>
       <c r="D24" s="39" t="b">
         <v>1</v>
@@ -2927,15 +2960,15 @@
         <v>2021-07-04T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="1" customFormat="1" ht="14.25">
+    <row r="25" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <v>2</v>
       </c>
       <c r="B25" s="22">
         <v>24</v>
       </c>
-      <c r="C25" s="31" t="str">
-        <v>6/02～6/20_総合保健福祉センター(65歳以上)</v>
+      <c r="C25" s="31" t="s">
+        <v>35</v>
       </c>
       <c r="D25" s="40" t="b">
         <v>1</v>
@@ -2994,15 +3027,15 @@
         <v>2021-07-11T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26" s="12">
         <v>2</v>
       </c>
       <c r="B26" s="21">
         <v>25</v>
       </c>
-      <c r="C26" s="24" t="str">
-        <v>6/02～6/20_東生涯学習センター(65歳以上)</v>
+      <c r="C26" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="D26" s="33" t="b">
         <v>1</v>
@@ -3057,15 +3090,15 @@
         <v>2021-06-02T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" s="13">
         <v>2</v>
       </c>
       <c r="B27" s="3">
         <v>26</v>
       </c>
-      <c r="C27" s="25" t="str">
-        <v>6/02～6/20_東生涯学習センター(65歳以上)</v>
+      <c r="C27" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="D27" s="34" t="b">
         <v>1</v>
@@ -3120,15 +3153,15 @@
         <v>2021-06-03T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28" s="13">
         <v>2</v>
       </c>
       <c r="B28" s="3">
         <v>27</v>
       </c>
-      <c r="C28" s="25" t="str">
-        <v>6/02～6/20_東生涯学習センター(65歳以上)</v>
+      <c r="C28" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="D28" s="34" t="b">
         <v>1</v>
@@ -3183,15 +3216,15 @@
         <v>2021-06-09T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29" s="13">
         <v>2</v>
       </c>
       <c r="B29" s="3">
         <v>28</v>
       </c>
-      <c r="C29" s="25" t="str">
-        <v>6/02～6/20_東生涯学習センター(65歳以上)</v>
+      <c r="C29" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="D29" s="34" t="b">
         <v>1</v>
@@ -3246,15 +3279,15 @@
         <v>2021-06-10T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30" s="13">
         <v>2</v>
       </c>
       <c r="B30" s="3">
         <v>29</v>
       </c>
-      <c r="C30" s="25" t="str">
-        <v>6/02～6/20_東生涯学習センター(65歳以上)</v>
+      <c r="C30" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="D30" s="34" t="b">
         <v>1</v>
@@ -3309,15 +3342,15 @@
         <v>2021-06-16T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31" s="13">
         <v>2</v>
       </c>
       <c r="B31" s="3">
         <v>30</v>
       </c>
-      <c r="C31" s="25" t="str">
-        <v>6/02～6/20_東生涯学習センター(65歳以上)</v>
+      <c r="C31" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="D31" s="34" t="b">
         <v>1</v>
@@ -3372,15 +3405,15 @@
         <v>2021-06-17T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32" s="13">
         <v>2</v>
       </c>
       <c r="B32" s="3">
         <v>31</v>
       </c>
-      <c r="C32" s="26" t="str">
-        <v>6/02～6/20_東生涯学習センター(65歳以上)</v>
+      <c r="C32" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="D32" s="35" t="b">
         <v>1</v>
@@ -3435,15 +3468,15 @@
         <v>2021-06-23T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" s="13">
         <v>2</v>
       </c>
       <c r="B33" s="3">
         <v>32</v>
       </c>
-      <c r="C33" s="26" t="str">
-        <v>6/02～6/20_東生涯学習センター(65歳以上)</v>
+      <c r="C33" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="D33" s="35" t="b">
         <v>1</v>
@@ -3498,15 +3531,15 @@
         <v>2021-06-24T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34" s="13">
         <v>2</v>
       </c>
       <c r="B34" s="3">
         <v>33</v>
       </c>
-      <c r="C34" s="26" t="str">
-        <v>6/02～6/20_東生涯学習センター(65歳以上)</v>
+      <c r="C34" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="D34" s="35" t="b">
         <v>1</v>
@@ -3561,15 +3594,15 @@
         <v>2021-06-30T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35" s="13">
         <v>2</v>
       </c>
       <c r="B35" s="3">
         <v>34</v>
       </c>
-      <c r="C35" s="26" t="str">
-        <v>6/02～6/20_東生涯学習センター(65歳以上)</v>
+      <c r="C35" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="D35" s="35" t="b">
         <v>1</v>
@@ -3624,15 +3657,15 @@
         <v>2021-07-01T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36" s="13">
         <v>2</v>
       </c>
       <c r="B36" s="3">
         <v>35</v>
       </c>
-      <c r="C36" s="26" t="str">
-        <v>6/02～6/20_東生涯学習センター(65歳以上)</v>
+      <c r="C36" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="D36" s="35" t="b">
         <v>1</v>
@@ -3687,15 +3720,15 @@
         <v>2021-07-07T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37" s="13">
         <v>2</v>
       </c>
       <c r="B37" s="3">
         <v>36</v>
       </c>
-      <c r="C37" s="26" t="str">
-        <v>6/02～6/20_東生涯学習センター(65歳以上)</v>
+      <c r="C37" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="D37" s="35" t="b">
         <v>1</v>
@@ -3750,15 +3783,15 @@
         <v>2021-07-08T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38" s="13">
         <v>2</v>
       </c>
       <c r="B38" s="3">
         <v>37</v>
       </c>
-      <c r="C38" s="27" t="str">
-        <v>6/02～6/20_東生涯学習センター(65歳以上)</v>
+      <c r="C38" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="D38" s="36" t="b">
         <v>1</v>
@@ -3813,15 +3846,15 @@
         <v>2021-06-05T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39" s="13">
         <v>2</v>
       </c>
       <c r="B39" s="3">
         <v>38</v>
       </c>
-      <c r="C39" s="27" t="str">
-        <v>6/02～6/20_東生涯学習センター(65歳以上)</v>
+      <c r="C39" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="D39" s="36" t="b">
         <v>1</v>
@@ -3876,15 +3909,15 @@
         <v>2021-06-12T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40" s="13">
         <v>2</v>
       </c>
       <c r="B40" s="3">
         <v>39</v>
       </c>
-      <c r="C40" s="27" t="str">
-        <v>6/02～6/20_東生涯学習センター(65歳以上)</v>
+      <c r="C40" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="D40" s="36" t="b">
         <v>1</v>
@@ -3939,15 +3972,15 @@
         <v>2021-06-19T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41" s="13">
         <v>2</v>
       </c>
       <c r="B41" s="3">
         <v>40</v>
       </c>
-      <c r="C41" s="28" t="str">
-        <v>6/02～6/20_東生涯学習センター(65歳以上)</v>
+      <c r="C41" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="D41" s="37" t="b">
         <v>1</v>
@@ -4002,15 +4035,15 @@
         <v>2021-06-26T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42" s="13">
         <v>2</v>
       </c>
       <c r="B42" s="3">
         <v>41</v>
       </c>
-      <c r="C42" s="28" t="str">
-        <v>6/02～6/20_東生涯学習センター(65歳以上)</v>
+      <c r="C42" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="D42" s="37" t="b">
         <v>1</v>
@@ -4065,15 +4098,15 @@
         <v>2021-07-03T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A43" s="13">
         <v>2</v>
       </c>
       <c r="B43" s="3">
         <v>42</v>
       </c>
-      <c r="C43" s="28" t="str">
-        <v>6/02～6/20_東生涯学習センター(65歳以上)</v>
+      <c r="C43" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="D43" s="37" t="b">
         <v>1</v>
@@ -4128,15 +4161,15 @@
         <v>2021-07-10T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44" s="13">
         <v>2</v>
       </c>
       <c r="B44" s="3">
         <v>43</v>
       </c>
-      <c r="C44" s="29" t="str">
-        <v>6/02～6/20_東生涯学習センター(65歳以上)</v>
+      <c r="C44" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="D44" s="38" t="b">
         <v>1</v>
@@ -4195,15 +4228,15 @@
         <v>2021-06-06T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45" s="13">
         <v>2</v>
       </c>
       <c r="B45" s="3">
         <v>44</v>
       </c>
-      <c r="C45" s="29" t="str">
-        <v>6/02～6/20_東生涯学習センター(65歳以上)</v>
+      <c r="C45" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="D45" s="38" t="b">
         <v>1</v>
@@ -4262,15 +4295,15 @@
         <v>2021-06-13T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A46" s="13">
         <v>2</v>
       </c>
       <c r="B46" s="3">
         <v>45</v>
       </c>
-      <c r="C46" s="29" t="str">
-        <v>6/02～6/20_東生涯学習センター(65歳以上)</v>
+      <c r="C46" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="D46" s="38" t="b">
         <v>1</v>
@@ -4329,15 +4362,15 @@
         <v>2021-06-20T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47" s="13">
         <v>2</v>
       </c>
       <c r="B47" s="3">
         <v>46</v>
       </c>
-      <c r="C47" s="30" t="str">
-        <v>6/02～6/20_東生涯学習センター(65歳以上)</v>
+      <c r="C47" s="30" t="s">
+        <v>36</v>
       </c>
       <c r="D47" s="39" t="b">
         <v>1</v>
@@ -4396,15 +4429,15 @@
         <v>2021-06-27T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48" s="13">
         <v>2</v>
       </c>
       <c r="B48" s="3">
         <v>47</v>
       </c>
-      <c r="C48" s="30" t="str">
-        <v>6/02～6/20_東生涯学習センター(65歳以上)</v>
+      <c r="C48" s="30" t="s">
+        <v>36</v>
       </c>
       <c r="D48" s="39" t="b">
         <v>1</v>
@@ -4463,15 +4496,15 @@
         <v>2021-07-04T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="14.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A49" s="14">
         <v>2</v>
       </c>
       <c r="B49" s="22">
         <v>48</v>
       </c>
-      <c r="C49" s="31" t="str">
-        <v>6/02～6/20_東生涯学習センター(65歳以上)</v>
+      <c r="C49" s="31" t="s">
+        <v>36</v>
       </c>
       <c r="D49" s="40" t="b">
         <v>1</v>
@@ -4530,15 +4563,15 @@
         <v>2021-07-11T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A50" s="12">
         <v>2</v>
       </c>
       <c r="B50" s="21">
         <v>49</v>
       </c>
-      <c r="C50" s="24" t="str">
-        <v>6/02～6/20_西南生涯学習センター(65歳以上)</v>
+      <c r="C50" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="D50" s="33" t="b">
         <v>1</v>
@@ -4593,15 +4626,15 @@
         <v>2021-06-02T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A51" s="13">
         <v>2</v>
       </c>
       <c r="B51" s="3">
         <v>50</v>
       </c>
-      <c r="C51" s="25" t="str">
-        <v>6/02～6/20_西南生涯学習センター(65歳以上)</v>
+      <c r="C51" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="D51" s="34" t="b">
         <v>1</v>
@@ -4656,15 +4689,15 @@
         <v>2021-06-03T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A52" s="13">
         <v>2</v>
       </c>
       <c r="B52" s="3">
         <v>51</v>
       </c>
-      <c r="C52" s="25" t="str">
-        <v>6/02～6/20_西南生涯学習センター(65歳以上)</v>
+      <c r="C52" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="D52" s="34" t="b">
         <v>1</v>
@@ -4719,15 +4752,15 @@
         <v>2021-06-09T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A53" s="13">
         <v>2</v>
       </c>
       <c r="B53" s="3">
         <v>52</v>
       </c>
-      <c r="C53" s="25" t="str">
-        <v>6/02～6/20_西南生涯学習センター(65歳以上)</v>
+      <c r="C53" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="D53" s="34" t="b">
         <v>1</v>
@@ -4782,15 +4815,15 @@
         <v>2021-06-10T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A54" s="13">
         <v>2</v>
       </c>
       <c r="B54" s="3">
         <v>53</v>
       </c>
-      <c r="C54" s="25" t="str">
-        <v>6/02～6/20_西南生涯学習センター(65歳以上)</v>
+      <c r="C54" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="D54" s="34" t="b">
         <v>1</v>
@@ -4845,15 +4878,15 @@
         <v>2021-06-16T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A55" s="13">
         <v>2</v>
       </c>
       <c r="B55" s="3">
         <v>54</v>
       </c>
-      <c r="C55" s="25" t="str">
-        <v>6/02～6/20_西南生涯学習センター(65歳以上)</v>
+      <c r="C55" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="D55" s="34" t="b">
         <v>1</v>
@@ -4908,15 +4941,15 @@
         <v>2021-06-17T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A56" s="13">
         <v>2</v>
       </c>
       <c r="B56" s="3">
         <v>55</v>
       </c>
-      <c r="C56" s="26" t="str">
-        <v>6/02～6/20_西南生涯学習センター(65歳以上)</v>
+      <c r="C56" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="D56" s="35" t="b">
         <v>1</v>
@@ -4971,15 +5004,15 @@
         <v>2021-06-23T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A57" s="13">
         <v>2</v>
       </c>
       <c r="B57" s="3">
         <v>56</v>
       </c>
-      <c r="C57" s="26" t="str">
-        <v>6/02～6/20_西南生涯学習センター(65歳以上)</v>
+      <c r="C57" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="D57" s="35" t="b">
         <v>1</v>
@@ -5034,15 +5067,15 @@
         <v>2021-06-24T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A58" s="13">
         <v>2</v>
       </c>
       <c r="B58" s="3">
         <v>57</v>
       </c>
-      <c r="C58" s="26" t="str">
-        <v>6/02～6/20_西南生涯学習センター(65歳以上)</v>
+      <c r="C58" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="D58" s="35" t="b">
         <v>1</v>
@@ -5097,15 +5130,15 @@
         <v>2021-06-30T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A59" s="13">
         <v>2</v>
       </c>
       <c r="B59" s="3">
         <v>58</v>
       </c>
-      <c r="C59" s="26" t="str">
-        <v>6/02～6/20_西南生涯学習センター(65歳以上)</v>
+      <c r="C59" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="D59" s="35" t="b">
         <v>1</v>
@@ -5160,15 +5193,15 @@
         <v>2021-07-01T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A60" s="13">
         <v>2</v>
       </c>
       <c r="B60" s="3">
         <v>59</v>
       </c>
-      <c r="C60" s="26" t="str">
-        <v>6/02～6/20_西南生涯学習センター(65歳以上)</v>
+      <c r="C60" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="D60" s="35" t="b">
         <v>1</v>
@@ -5223,15 +5256,15 @@
         <v>2021-07-07T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A61" s="13">
         <v>2</v>
       </c>
       <c r="B61" s="3">
         <v>60</v>
       </c>
-      <c r="C61" s="26" t="str">
-        <v>6/02～6/20_西南生涯学習センター(65歳以上)</v>
+      <c r="C61" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="D61" s="35" t="b">
         <v>1</v>
@@ -5286,15 +5319,15 @@
         <v>2021-07-08T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A62" s="13">
         <v>2</v>
       </c>
       <c r="B62" s="3">
         <v>61</v>
       </c>
-      <c r="C62" s="27" t="str">
-        <v>6/02～6/20_西南生涯学習センター(65歳以上)</v>
+      <c r="C62" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="D62" s="36" t="b">
         <v>1</v>
@@ -5349,15 +5382,15 @@
         <v>2021-06-05T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A63" s="13">
         <v>2</v>
       </c>
       <c r="B63" s="3">
         <v>62</v>
       </c>
-      <c r="C63" s="27" t="str">
-        <v>6/02～6/20_西南生涯学習センター(65歳以上)</v>
+      <c r="C63" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="D63" s="36" t="b">
         <v>1</v>
@@ -5412,15 +5445,15 @@
         <v>2021-06-12T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A64" s="13">
         <v>2</v>
       </c>
       <c r="B64" s="3">
         <v>63</v>
       </c>
-      <c r="C64" s="27" t="str">
-        <v>6/02～6/20_西南生涯学習センター(65歳以上)</v>
+      <c r="C64" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="D64" s="36" t="b">
         <v>1</v>
@@ -5475,15 +5508,15 @@
         <v>2021-06-19T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A65" s="13">
         <v>2</v>
       </c>
       <c r="B65" s="3">
         <v>64</v>
       </c>
-      <c r="C65" s="28" t="str">
-        <v>6/02～6/20_西南生涯学習センター(65歳以上)</v>
+      <c r="C65" s="28" t="s">
+        <v>34</v>
       </c>
       <c r="D65" s="37" t="b">
         <v>1</v>
@@ -5538,7 +5571,7 @@
         <v>2021-06-26T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A66" s="13">
         <v>2</v>
       </c>
@@ -5601,15 +5634,15 @@
         <v>2021-07-03T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A67" s="13">
         <v>2</v>
       </c>
       <c r="B67" s="3">
         <v>66</v>
       </c>
-      <c r="C67" s="28" t="str">
-        <v>6/02～6/20_西南生涯学習センター(65歳以上)</v>
+      <c r="C67" s="28" t="s">
+        <v>34</v>
       </c>
       <c r="D67" s="37" t="b">
         <v>1</v>
@@ -5664,15 +5697,15 @@
         <v>2021-07-10T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A68" s="13">
         <v>2</v>
       </c>
       <c r="B68" s="3">
         <v>67</v>
       </c>
-      <c r="C68" s="29" t="str">
-        <v>6/02～6/20_西南生涯学習センター(65歳以上)</v>
+      <c r="C68" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="D68" s="38" t="b">
         <v>1</v>
@@ -5731,15 +5764,15 @@
         <v>2021-06-06T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A69" s="13">
         <v>2</v>
       </c>
       <c r="B69" s="3">
         <v>68</v>
       </c>
-      <c r="C69" s="29" t="str">
-        <v>6/02～6/20_西南生涯学習センター(65歳以上)</v>
+      <c r="C69" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="D69" s="38" t="b">
         <v>1</v>
@@ -5798,15 +5831,15 @@
         <v>2021-06-13T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A70" s="13">
         <v>2</v>
       </c>
       <c r="B70" s="3">
         <v>69</v>
       </c>
-      <c r="C70" s="29" t="str">
-        <v>6/02～6/20_西南生涯学習センター(65歳以上)</v>
+      <c r="C70" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="D70" s="38" t="b">
         <v>1</v>
@@ -5865,15 +5898,15 @@
         <v>2021-06-20T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A71" s="13">
         <v>2</v>
       </c>
       <c r="B71" s="3">
         <v>70</v>
       </c>
-      <c r="C71" s="30" t="str">
-        <v>6/02～6/20_西南生涯学習センター(65歳以上)</v>
+      <c r="C71" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="D71" s="39" t="b">
         <v>1</v>
@@ -5932,15 +5965,15 @@
         <v>2021-06-27T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A72" s="13">
         <v>2</v>
       </c>
       <c r="B72" s="3">
         <v>71</v>
       </c>
-      <c r="C72" s="30" t="str">
-        <v>6/02～6/20_西南生涯学習センター(65歳以上)</v>
+      <c r="C72" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="D72" s="39" t="b">
         <v>1</v>
@@ -5999,15 +6032,15 @@
         <v>2021-07-04T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="14.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A73" s="14">
         <v>2</v>
       </c>
       <c r="B73" s="22">
         <v>72</v>
       </c>
-      <c r="C73" s="31" t="str">
-        <v>6/02～6/20_西南生涯学習センター(65歳以上)</v>
+      <c r="C73" s="31" t="s">
+        <v>34</v>
       </c>
       <c r="D73" s="40" t="b">
         <v>1</v>
@@ -6066,7 +6099,7 @@
         <v>2021-07-11T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="74" spans="1:20" s="1" customFormat="1">
+    <row r="74" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="15">
         <v>3</v>
       </c>
@@ -6129,7 +6162,7 @@
         <v>2021-06-23T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="75" spans="1:20" s="1" customFormat="1">
+    <row r="75" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="16">
         <v>3</v>
       </c>
@@ -6192,7 +6225,7 @@
         <v>2021-06-24T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="76" spans="1:20" s="1" customFormat="1">
+    <row r="76" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="16">
         <v>3</v>
       </c>
@@ -6255,7 +6288,7 @@
         <v>2021-06-30T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="77" spans="1:20" s="1" customFormat="1">
+    <row r="77" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="16">
         <v>3</v>
       </c>
@@ -6318,7 +6351,7 @@
         <v>2021-07-01T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="78" spans="1:20" s="1" customFormat="1">
+    <row r="78" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="16">
         <v>3</v>
       </c>
@@ -6381,7 +6414,7 @@
         <v>2021-07-07T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="79" spans="1:20" s="1" customFormat="1">
+    <row r="79" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="16">
         <v>3</v>
       </c>
@@ -6444,7 +6477,7 @@
         <v>2021-07-08T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="80" spans="1:20" s="1" customFormat="1">
+    <row r="80" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="16">
         <v>3</v>
       </c>
@@ -6507,7 +6540,7 @@
         <v>2021-07-14T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="1" customFormat="1">
+    <row r="81" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="16">
         <v>3</v>
       </c>
@@ -6570,7 +6603,7 @@
         <v>2021-07-15T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="1" customFormat="1">
+    <row r="82" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="16">
         <v>3</v>
       </c>
@@ -6633,7 +6666,7 @@
         <v>2021-07-21T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="1" customFormat="1">
+    <row r="83" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="16">
         <v>3</v>
       </c>
@@ -6696,7 +6729,7 @@
         <v>2021-07-22T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="1" customFormat="1">
+    <row r="84" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="16">
         <v>3</v>
       </c>
@@ -6759,7 +6792,7 @@
         <v>2021-07-28T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="1" customFormat="1">
+    <row r="85" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="16">
         <v>3</v>
       </c>
@@ -6822,7 +6855,7 @@
         <v>2021-07-29T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="1" customFormat="1">
+    <row r="86" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="16">
         <v>3</v>
       </c>
@@ -6885,7 +6918,7 @@
         <v>2021-06-26T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="1" customFormat="1">
+    <row r="87" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="16">
         <v>3</v>
       </c>
@@ -6948,7 +6981,7 @@
         <v>2021-07-03T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="1" customFormat="1">
+    <row r="88" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="16">
         <v>3</v>
       </c>
@@ -7011,7 +7044,7 @@
         <v>2021-07-10T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="1" customFormat="1">
+    <row r="89" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="16">
         <v>3</v>
       </c>
@@ -7074,7 +7107,7 @@
         <v>2021-07-17T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="1" customFormat="1">
+    <row r="90" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="16">
         <v>3</v>
       </c>
@@ -7137,7 +7170,7 @@
         <v>2021-07-24T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="91" spans="1:20" s="1" customFormat="1">
+    <row r="91" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="16">
         <v>3</v>
       </c>
@@ -7200,7 +7233,7 @@
         <v>2021-07-31T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="92" spans="1:20" s="1" customFormat="1">
+    <row r="92" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="16">
         <v>3</v>
       </c>
@@ -7267,7 +7300,7 @@
         <v>2021-06-27T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="1" customFormat="1">
+    <row r="93" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="16">
         <v>3</v>
       </c>
@@ -7334,7 +7367,7 @@
         <v>2021-07-04T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="1" customFormat="1">
+    <row r="94" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="16">
         <v>3</v>
       </c>
@@ -7401,7 +7434,7 @@
         <v>2021-07-11T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="95" spans="1:20" s="1" customFormat="1">
+    <row r="95" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="16">
         <v>3</v>
       </c>
@@ -7468,7 +7501,7 @@
         <v>2021-07-18T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="96" spans="1:20" s="1" customFormat="1">
+    <row r="96" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="16">
         <v>3</v>
       </c>
@@ -7535,7 +7568,7 @@
         <v>2021-07-25T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="97" spans="1:20" s="1" customFormat="1" ht="14.25">
+    <row r="97" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="17">
         <v>3</v>
       </c>
@@ -7602,7 +7635,7 @@
         <v>2021-08-01T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A98" s="15">
         <v>3</v>
       </c>
@@ -7665,7 +7698,7 @@
         <v>2021-06-23T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A99" s="16">
         <v>3</v>
       </c>
@@ -7728,7 +7761,7 @@
         <v>2021-06-24T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A100" s="16">
         <v>3</v>
       </c>
@@ -7791,7 +7824,7 @@
         <v>2021-06-30T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A101" s="16">
         <v>3</v>
       </c>
@@ -7854,7 +7887,7 @@
         <v>2021-07-01T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A102" s="16">
         <v>3</v>
       </c>
@@ -7917,7 +7950,7 @@
         <v>2021-07-07T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A103" s="16">
         <v>3</v>
       </c>
@@ -7980,7 +8013,7 @@
         <v>2021-07-08T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A104" s="16">
         <v>3</v>
       </c>
@@ -8043,7 +8076,7 @@
         <v>2021-07-14T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A105" s="16">
         <v>3</v>
       </c>
@@ -8106,7 +8139,7 @@
         <v>2021-07-15T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A106" s="16">
         <v>3</v>
       </c>
@@ -8169,7 +8202,7 @@
         <v>2021-07-21T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A107" s="16">
         <v>3</v>
       </c>
@@ -8232,7 +8265,7 @@
         <v>2021-07-22T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A108" s="16">
         <v>3</v>
       </c>
@@ -8295,7 +8328,7 @@
         <v>2021-07-28T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A109" s="16">
         <v>3</v>
       </c>
@@ -8358,7 +8391,7 @@
         <v>2021-07-29T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A110" s="16">
         <v>3</v>
       </c>
@@ -8421,7 +8454,7 @@
         <v>2021-06-26T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A111" s="16">
         <v>3</v>
       </c>
@@ -8484,7 +8517,7 @@
         <v>2021-07-03T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A112" s="16">
         <v>3</v>
       </c>
@@ -8547,7 +8580,7 @@
         <v>2021-07-10T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A113" s="16">
         <v>3</v>
       </c>
@@ -8610,7 +8643,7 @@
         <v>2021-07-17T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A114" s="16">
         <v>3</v>
       </c>
@@ -8673,7 +8706,7 @@
         <v>2021-07-24T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A115" s="16">
         <v>3</v>
       </c>
@@ -8736,7 +8769,7 @@
         <v>2021-07-31T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A116" s="16">
         <v>3</v>
       </c>
@@ -8803,7 +8836,7 @@
         <v>2021-06-27T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A117" s="16">
         <v>3</v>
       </c>
@@ -8870,7 +8903,7 @@
         <v>2021-07-04T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A118" s="16">
         <v>3</v>
       </c>
@@ -8937,7 +8970,7 @@
         <v>2021-07-11T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A119" s="16">
         <v>3</v>
       </c>
@@ -9004,7 +9037,7 @@
         <v>2021-07-18T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A120" s="16">
         <v>3</v>
       </c>
@@ -9071,7 +9104,7 @@
         <v>2021-07-25T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="14.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A121" s="17">
         <v>3</v>
       </c>
@@ -9138,7 +9171,7 @@
         <v>2021-08-01T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A122" s="15">
         <v>3</v>
       </c>
@@ -9201,7 +9234,7 @@
         <v>2021-06-23T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A123" s="16">
         <v>3</v>
       </c>
@@ -9264,7 +9297,7 @@
         <v>2021-06-24T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A124" s="16">
         <v>3</v>
       </c>
@@ -9327,7 +9360,7 @@
         <v>2021-06-30T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A125" s="16">
         <v>3</v>
       </c>
@@ -9390,7 +9423,7 @@
         <v>2021-07-01T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A126" s="16">
         <v>3</v>
       </c>
@@ -9453,7 +9486,7 @@
         <v>2021-07-07T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A127" s="16">
         <v>3</v>
       </c>
@@ -9516,7 +9549,7 @@
         <v>2021-07-08T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A128" s="16">
         <v>3</v>
       </c>
@@ -9579,7 +9612,7 @@
         <v>2021-07-14T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A129" s="16">
         <v>3</v>
       </c>
@@ -9642,7 +9675,7 @@
         <v>2021-07-15T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A130" s="16">
         <v>3</v>
       </c>
@@ -9705,7 +9738,7 @@
         <v>2021-07-21T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A131" s="16">
         <v>3</v>
       </c>
@@ -9768,7 +9801,7 @@
         <v>2021-07-22T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A132" s="16">
         <v>3</v>
       </c>
@@ -9831,7 +9864,7 @@
         <v>2021-07-28T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A133" s="16">
         <v>3</v>
       </c>
@@ -9894,7 +9927,7 @@
         <v>2021-07-29T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A134" s="16">
         <v>3</v>
       </c>
@@ -9957,7 +9990,7 @@
         <v>2021-06-26T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A135" s="16">
         <v>3</v>
       </c>
@@ -10020,7 +10053,7 @@
         <v>2021-07-03T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A136" s="16">
         <v>3</v>
       </c>
@@ -10083,7 +10116,7 @@
         <v>2021-07-10T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A137" s="16">
         <v>3</v>
       </c>
@@ -10146,7 +10179,7 @@
         <v>2021-07-17T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A138" s="16">
         <v>3</v>
       </c>
@@ -10209,7 +10242,7 @@
         <v>2021-07-24T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A139" s="16">
         <v>3</v>
       </c>
@@ -10272,7 +10305,7 @@
         <v>2021-07-31T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A140" s="16">
         <v>3</v>
       </c>
@@ -10339,7 +10372,7 @@
         <v>2021-06-27T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A141" s="16">
         <v>3</v>
       </c>
@@ -10406,7 +10439,7 @@
         <v>2021-07-04T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A142" s="16">
         <v>3</v>
       </c>
@@ -10473,7 +10506,7 @@
         <v>2021-07-11T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A143" s="16">
         <v>3</v>
       </c>
@@ -10540,7 +10573,7 @@
         <v>2021-07-18T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A144" s="16">
         <v>3</v>
       </c>
@@ -10607,7 +10640,7 @@
         <v>2021-07-25T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="14.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A145" s="17">
         <v>3</v>
       </c>
@@ -10674,15 +10707,15 @@
         <v>2021-08-01T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="146" spans="1:20" s="1" customFormat="1">
+    <row r="146" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="18">
         <v>4</v>
       </c>
       <c r="B146" s="21">
         <v>145</v>
       </c>
-      <c r="C146" s="24" t="str">
-        <v>7/14～8/01_総合保健福祉センター(65歳以上)</v>
+      <c r="C146" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="D146" s="33" t="b">
         <v>1</v>
@@ -10737,15 +10770,15 @@
         <v>2021-07-14T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="147" spans="1:20" s="1" customFormat="1">
+    <row r="147" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="19">
         <v>4</v>
       </c>
       <c r="B147" s="3">
         <v>146</v>
       </c>
-      <c r="C147" s="25" t="str">
-        <v>7/14～8/01_総合保健福祉センター(65歳以上)</v>
+      <c r="C147" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="D147" s="34" t="b">
         <v>1</v>
@@ -10800,15 +10833,15 @@
         <v>2021-07-15T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="148" spans="1:20" s="1" customFormat="1">
+    <row r="148" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="19">
         <v>4</v>
       </c>
       <c r="B148" s="3">
         <v>147</v>
       </c>
-      <c r="C148" s="25" t="str">
-        <v>7/14～8/01_総合保健福祉センター(65歳以上)</v>
+      <c r="C148" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="D148" s="41" t="b">
         <v>1</v>
@@ -10863,15 +10896,15 @@
         <v>2021-07-21T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="149" spans="1:20" s="1" customFormat="1">
+    <row r="149" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149" s="19">
         <v>4</v>
       </c>
       <c r="B149" s="3">
         <v>148</v>
       </c>
-      <c r="C149" s="25" t="str">
-        <v>7/14～8/01_総合保健福祉センター(65歳以上)</v>
+      <c r="C149" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="D149" s="34" t="b">
         <v>1</v>
@@ -10926,15 +10959,15 @@
         <v>2021-07-28T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="150" spans="1:20" s="1" customFormat="1">
+    <row r="150" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="19">
         <v>4</v>
       </c>
       <c r="B150" s="3">
         <v>149</v>
       </c>
-      <c r="C150" s="25" t="str">
-        <v>7/14～8/01_総合保健福祉センター(65歳以上)</v>
+      <c r="C150" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="D150" s="34" t="b">
         <v>1</v>
@@ -10989,15 +11022,15 @@
         <v>2021-07-29T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="151" spans="1:20" s="1" customFormat="1">
+    <row r="151" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="19">
         <v>4</v>
       </c>
       <c r="B151" s="3">
         <v>150</v>
       </c>
-      <c r="C151" s="26" t="str">
-        <v>7/14～8/01_総合保健福祉センター(65歳以上)</v>
+      <c r="C151" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="D151" s="35" t="b">
         <v>1</v>
@@ -11052,15 +11085,15 @@
         <v>2021-08-04T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="152" spans="1:20" s="1" customFormat="1">
+    <row r="152" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="19">
         <v>4</v>
       </c>
       <c r="B152" s="3">
         <v>151</v>
       </c>
-      <c r="C152" s="26" t="str">
-        <v>7/14～8/01_総合保健福祉センター(65歳以上)</v>
+      <c r="C152" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="D152" s="35" t="b">
         <v>1</v>
@@ -11115,15 +11148,15 @@
         <v>2021-08-05T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="153" spans="1:20" s="1" customFormat="1">
+    <row r="153" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="19">
         <v>4</v>
       </c>
       <c r="B153" s="3">
         <v>152</v>
       </c>
-      <c r="C153" s="26" t="str">
-        <v>7/14～8/01_総合保健福祉センター(65歳以上)</v>
+      <c r="C153" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="D153" s="41" t="b">
         <v>1</v>
@@ -11178,15 +11211,15 @@
         <v>2021-08-11T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="154" spans="1:20" s="1" customFormat="1">
+    <row r="154" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="19">
         <v>4</v>
       </c>
       <c r="B154" s="3">
         <v>153</v>
       </c>
-      <c r="C154" s="26" t="str">
-        <v>7/14～8/01_総合保健福祉センター(65歳以上)</v>
+      <c r="C154" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="D154" s="35" t="b">
         <v>1</v>
@@ -11241,15 +11274,15 @@
         <v>2021-08-18T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="155" spans="1:20" s="1" customFormat="1">
+    <row r="155" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="19">
         <v>4</v>
       </c>
       <c r="B155" s="3">
         <v>154</v>
       </c>
-      <c r="C155" s="26" t="str">
-        <v>7/14～8/01_総合保健福祉センター(65歳以上)</v>
+      <c r="C155" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="D155" s="35" t="b">
         <v>1</v>
@@ -11304,15 +11337,15 @@
         <v>2021-08-19T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="156" spans="1:20" s="1" customFormat="1">
+    <row r="156" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A156" s="19">
         <v>4</v>
       </c>
       <c r="B156" s="3">
         <v>155</v>
       </c>
-      <c r="C156" s="27" t="str">
-        <v>7/14～8/01_総合保健福祉センター(65歳以上)</v>
+      <c r="C156" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="D156" s="36" t="b">
         <v>1</v>
@@ -11367,15 +11400,15 @@
         <v>2021-07-17T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="157" spans="1:20" s="1" customFormat="1">
+    <row r="157" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="19">
         <v>4</v>
       </c>
       <c r="B157" s="3">
         <v>156</v>
       </c>
-      <c r="C157" s="27" t="str">
-        <v>7/14～8/01_総合保健福祉センター(65歳以上)</v>
+      <c r="C157" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="D157" s="42" t="b">
         <v>1</v>
@@ -11430,15 +11463,15 @@
         <v>2021-07-31T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="158" spans="1:20" s="1" customFormat="1">
+    <row r="158" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" s="19">
         <v>4</v>
       </c>
       <c r="B158" s="3">
         <v>157</v>
       </c>
-      <c r="C158" s="28" t="str">
-        <v>7/14～8/01_総合保健福祉センター(65歳以上)</v>
+      <c r="C158" s="28" t="s">
+        <v>37</v>
       </c>
       <c r="D158" s="37" t="b">
         <v>1</v>
@@ -11493,15 +11526,15 @@
         <v>2021-08-07T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="159" spans="1:20" s="1" customFormat="1">
+    <row r="159" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A159" s="19">
         <v>4</v>
       </c>
       <c r="B159" s="3">
         <v>158</v>
       </c>
-      <c r="C159" s="28" t="str">
-        <v>7/14～8/01_総合保健福祉センター(65歳以上)</v>
+      <c r="C159" s="28" t="s">
+        <v>37</v>
       </c>
       <c r="D159" s="42" t="b">
         <v>1</v>
@@ -11556,15 +11589,15 @@
         <v>2021-08-21T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="160" spans="1:20" s="1" customFormat="1">
+    <row r="160" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="19">
         <v>4</v>
       </c>
       <c r="B160" s="3">
         <v>159</v>
       </c>
-      <c r="C160" s="29" t="str">
-        <v>7/14～8/01_総合保健福祉センター(65歳以上)</v>
+      <c r="C160" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="D160" s="38" t="b">
         <v>1</v>
@@ -11623,15 +11656,15 @@
         <v>2021-07-18T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="161" spans="1:20" s="1" customFormat="1">
+    <row r="161" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="19">
         <v>4</v>
       </c>
       <c r="B161" s="3">
         <v>160</v>
       </c>
-      <c r="C161" s="29" t="str">
-        <v>7/14～8/01_総合保健福祉センター(65歳以上)</v>
+      <c r="C161" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="D161" s="43" t="b">
         <v>1</v>
@@ -11690,15 +11723,15 @@
         <v>2021-07-25T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="162" spans="1:20" s="1" customFormat="1">
+    <row r="162" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="19">
         <v>4</v>
       </c>
       <c r="B162" s="3">
         <v>161</v>
       </c>
-      <c r="C162" s="29" t="str">
-        <v>7/14～8/01_総合保健福祉センター(65歳以上)</v>
+      <c r="C162" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="D162" s="38" t="b">
         <v>1</v>
@@ -11757,15 +11790,15 @@
         <v>2021-08-01T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="163" spans="1:20" s="1" customFormat="1">
+    <row r="163" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="19">
         <v>4</v>
       </c>
       <c r="B163" s="3">
         <v>162</v>
       </c>
-      <c r="C163" s="30" t="str">
-        <v>7/14～8/01_総合保健福祉センター(65歳以上)</v>
+      <c r="C163" s="30" t="s">
+        <v>37</v>
       </c>
       <c r="D163" s="39" t="b">
         <v>1</v>
@@ -11824,15 +11857,15 @@
         <v>2021-08-08T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="164" spans="1:20" s="1" customFormat="1">
+    <row r="164" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="19">
         <v>4</v>
       </c>
       <c r="B164" s="3">
         <v>163</v>
       </c>
-      <c r="C164" s="30" t="str">
-        <v>7/14～8/01_総合保健福祉センター(65歳以上)</v>
+      <c r="C164" s="30" t="s">
+        <v>37</v>
       </c>
       <c r="D164" s="43" t="b">
         <v>1</v>
@@ -11891,15 +11924,15 @@
         <v>2021-08-15T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="165" spans="1:20" s="1" customFormat="1" ht="14.25">
+    <row r="165" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="20">
         <v>4</v>
       </c>
       <c r="B165" s="22">
         <v>164</v>
       </c>
-      <c r="C165" s="31" t="str">
-        <v>7/14～8/01_総合保健福祉センター(65歳以上)</v>
+      <c r="C165" s="31" t="s">
+        <v>37</v>
       </c>
       <c r="D165" s="40" t="b">
         <v>1</v>
@@ -11958,15 +11991,15 @@
         <v>2021-08-22T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A166" s="18">
         <v>4</v>
       </c>
       <c r="B166" s="21">
         <v>165</v>
       </c>
-      <c r="C166" s="24" t="str">
-        <v>7/14～8/01_東生涯学習センター(65歳以上)</v>
+      <c r="C166" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="D166" s="33" t="b">
         <v>1</v>
@@ -12021,15 +12054,15 @@
         <v>2021-07-14T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A167" s="19">
         <v>4</v>
       </c>
       <c r="B167" s="3">
         <v>166</v>
       </c>
-      <c r="C167" s="25" t="str">
-        <v>7/14～8/01_東生涯学習センター(65歳以上)</v>
+      <c r="C167" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="D167" s="34" t="b">
         <v>1</v>
@@ -12084,15 +12117,15 @@
         <v>2021-07-15T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="168" spans="1:20">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A168" s="19">
         <v>4</v>
       </c>
       <c r="B168" s="3">
         <v>167</v>
       </c>
-      <c r="C168" s="25" t="str">
-        <v>7/14～8/01_東生涯学習センター(65歳以上)</v>
+      <c r="C168" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="D168" s="41" t="b">
         <v>1</v>
@@ -12147,15 +12180,15 @@
         <v>2021-07-21T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A169" s="19">
         <v>4</v>
       </c>
       <c r="B169" s="3">
         <v>168</v>
       </c>
-      <c r="C169" s="25" t="str">
-        <v>7/14～8/01_東生涯学習センター(65歳以上)</v>
+      <c r="C169" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="D169" s="34" t="b">
         <v>1</v>
@@ -12210,15 +12243,15 @@
         <v>2021-07-28T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A170" s="19">
         <v>4</v>
       </c>
       <c r="B170" s="3">
         <v>169</v>
       </c>
-      <c r="C170" s="25" t="str">
-        <v>7/14～8/01_東生涯学習センター(65歳以上)</v>
+      <c r="C170" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="D170" s="34" t="b">
         <v>1</v>
@@ -12273,15 +12306,15 @@
         <v>2021-07-29T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A171" s="19">
         <v>4</v>
       </c>
       <c r="B171" s="3">
         <v>170</v>
       </c>
-      <c r="C171" s="26" t="str">
-        <v>7/14～8/01_東生涯学習センター(65歳以上)</v>
+      <c r="C171" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="D171" s="35" t="b">
         <v>1</v>
@@ -12336,15 +12369,15 @@
         <v>2021-08-04T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A172" s="19">
         <v>4</v>
       </c>
       <c r="B172" s="3">
         <v>171</v>
       </c>
-      <c r="C172" s="26" t="str">
-        <v>7/14～8/01_東生涯学習センター(65歳以上)</v>
+      <c r="C172" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="D172" s="35" t="b">
         <v>1</v>
@@ -12399,15 +12432,15 @@
         <v>2021-08-05T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A173" s="19">
         <v>4</v>
       </c>
       <c r="B173" s="3">
         <v>172</v>
       </c>
-      <c r="C173" s="26" t="str">
-        <v>7/14～8/01_東生涯学習センター(65歳以上)</v>
+      <c r="C173" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="D173" s="41" t="b">
         <v>1</v>
@@ -12462,15 +12495,15 @@
         <v>2021-08-11T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A174" s="19">
         <v>4</v>
       </c>
       <c r="B174" s="3">
         <v>173</v>
       </c>
-      <c r="C174" s="26" t="str">
-        <v>7/14～8/01_東生涯学習センター(65歳以上)</v>
+      <c r="C174" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="D174" s="35" t="b">
         <v>1</v>
@@ -12525,15 +12558,15 @@
         <v>2021-08-18T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A175" s="19">
         <v>4</v>
       </c>
       <c r="B175" s="3">
         <v>174</v>
       </c>
-      <c r="C175" s="26" t="str">
-        <v>7/14～8/01_東生涯学習センター(65歳以上)</v>
+      <c r="C175" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="D175" s="35" t="b">
         <v>1</v>
@@ -12588,15 +12621,15 @@
         <v>2021-08-19T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A176" s="19">
         <v>4</v>
       </c>
       <c r="B176" s="3">
         <v>175</v>
       </c>
-      <c r="C176" s="27" t="str">
-        <v>7/14～8/01_東生涯学習センター(65歳以上)</v>
+      <c r="C176" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="D176" s="36" t="b">
         <v>1</v>
@@ -12651,15 +12684,15 @@
         <v>2021-07-17T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="177" spans="1:20">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A177" s="19">
         <v>4</v>
       </c>
       <c r="B177" s="3">
         <v>176</v>
       </c>
-      <c r="C177" s="27" t="str">
-        <v>7/14～8/01_東生涯学習センター(65歳以上)</v>
+      <c r="C177" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="D177" s="42" t="b">
         <v>1</v>
@@ -12714,15 +12747,15 @@
         <v>2021-07-31T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A178" s="19">
         <v>4</v>
       </c>
       <c r="B178" s="3">
         <v>177</v>
       </c>
-      <c r="C178" s="28" t="str">
-        <v>7/14～8/01_東生涯学習センター(65歳以上)</v>
+      <c r="C178" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="D178" s="37" t="b">
         <v>1</v>
@@ -12777,15 +12810,15 @@
         <v>2021-08-07T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A179" s="19">
         <v>4</v>
       </c>
       <c r="B179" s="3">
         <v>178</v>
       </c>
-      <c r="C179" s="28" t="str">
-        <v>7/14～8/01_東生涯学習センター(65歳以上)</v>
+      <c r="C179" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="D179" s="42" t="b">
         <v>1</v>
@@ -12840,15 +12873,15 @@
         <v>2021-08-21T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="180" spans="1:20">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A180" s="19">
         <v>4</v>
       </c>
       <c r="B180" s="3">
         <v>179</v>
       </c>
-      <c r="C180" s="29" t="str">
-        <v>7/14～8/01_東生涯学習センター(65歳以上)</v>
+      <c r="C180" s="29" t="s">
+        <v>38</v>
       </c>
       <c r="D180" s="38" t="b">
         <v>1</v>
@@ -12907,15 +12940,15 @@
         <v>2021-07-18T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="181" spans="1:20">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A181" s="19">
         <v>4</v>
       </c>
       <c r="B181" s="3">
         <v>180</v>
       </c>
-      <c r="C181" s="29" t="str">
-        <v>7/14～8/01_東生涯学習センター(65歳以上)</v>
+      <c r="C181" s="29" t="s">
+        <v>38</v>
       </c>
       <c r="D181" s="43" t="b">
         <v>1</v>
@@ -12974,15 +13007,15 @@
         <v>2021-07-25T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="182" spans="1:20">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A182" s="19">
         <v>4</v>
       </c>
       <c r="B182" s="3">
         <v>181</v>
       </c>
-      <c r="C182" s="29" t="str">
-        <v>7/14～8/01_東生涯学習センター(65歳以上)</v>
+      <c r="C182" s="29" t="s">
+        <v>38</v>
       </c>
       <c r="D182" s="38" t="b">
         <v>1</v>
@@ -13041,15 +13074,15 @@
         <v>2021-08-01T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="183" spans="1:20">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A183" s="19">
         <v>4</v>
       </c>
       <c r="B183" s="3">
         <v>182</v>
       </c>
-      <c r="C183" s="30" t="str">
-        <v>7/14～8/01_東生涯学習センター(65歳以上)</v>
+      <c r="C183" s="30" t="s">
+        <v>38</v>
       </c>
       <c r="D183" s="39" t="b">
         <v>1</v>
@@ -13108,15 +13141,15 @@
         <v>2021-08-08T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="184" spans="1:20">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A184" s="19">
         <v>4</v>
       </c>
       <c r="B184" s="3">
         <v>183</v>
       </c>
-      <c r="C184" s="30" t="str">
-        <v>7/14～8/01_東生涯学習センター(65歳以上)</v>
+      <c r="C184" s="30" t="s">
+        <v>38</v>
       </c>
       <c r="D184" s="43" t="b">
         <v>1</v>
@@ -13175,15 +13208,15 @@
         <v>2021-08-15T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="14.25">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A185" s="20">
         <v>4</v>
       </c>
       <c r="B185" s="22">
         <v>184</v>
       </c>
-      <c r="C185" s="31" t="str">
-        <v>7/14～8/01_東生涯学習センター(65歳以上)</v>
+      <c r="C185" s="31" t="s">
+        <v>38</v>
       </c>
       <c r="D185" s="40" t="b">
         <v>1</v>
@@ -13242,15 +13275,15 @@
         <v>2021-08-22T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="186" spans="1:20">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A186" s="18">
         <v>4</v>
       </c>
       <c r="B186" s="21">
         <v>185</v>
       </c>
-      <c r="C186" s="24" t="str">
-        <v>7/14～8/01_西南生涯学習センター(65歳以上)</v>
+      <c r="C186" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="D186" s="33" t="b">
         <v>1</v>
@@ -13305,15 +13338,15 @@
         <v>2021-07-14T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A187" s="19">
         <v>4</v>
       </c>
       <c r="B187" s="3">
         <v>186</v>
       </c>
-      <c r="C187" s="25" t="str">
-        <v>7/14～8/01_西南生涯学習センター(65歳以上)</v>
+      <c r="C187" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="D187" s="34" t="b">
         <v>1</v>
@@ -13368,15 +13401,15 @@
         <v>2021-07-15T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="188" spans="1:20">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A188" s="19">
         <v>4</v>
       </c>
       <c r="B188" s="3">
         <v>187</v>
       </c>
-      <c r="C188" s="25" t="str">
-        <v>7/14～8/01_西南生涯学習センター(65歳以上)</v>
+      <c r="C188" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="D188" s="41" t="b">
         <v>1</v>
@@ -13431,15 +13464,15 @@
         <v>2021-07-21T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="189" spans="1:20">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A189" s="19">
         <v>4</v>
       </c>
       <c r="B189" s="3">
         <v>188</v>
       </c>
-      <c r="C189" s="25" t="str">
-        <v>7/14～8/01_西南生涯学習センター(65歳以上)</v>
+      <c r="C189" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="D189" s="34" t="b">
         <v>1</v>
@@ -13494,15 +13527,15 @@
         <v>2021-07-28T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="190" spans="1:20">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A190" s="19">
         <v>4</v>
       </c>
       <c r="B190" s="3">
         <v>189</v>
       </c>
-      <c r="C190" s="25" t="str">
-        <v>7/14～8/01_西南生涯学習センター(65歳以上)</v>
+      <c r="C190" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="D190" s="34" t="b">
         <v>1</v>
@@ -13557,15 +13590,15 @@
         <v>2021-07-29T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="191" spans="1:20">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A191" s="19">
         <v>4</v>
       </c>
       <c r="B191" s="3">
         <v>190</v>
       </c>
-      <c r="C191" s="26" t="str">
-        <v>7/14～8/01_西南生涯学習センター(65歳以上)</v>
+      <c r="C191" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="D191" s="35" t="b">
         <v>1</v>
@@ -13620,15 +13653,15 @@
         <v>2021-08-04T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="192" spans="1:20">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A192" s="19">
         <v>4</v>
       </c>
       <c r="B192" s="3">
         <v>191</v>
       </c>
-      <c r="C192" s="26" t="str">
-        <v>7/14～8/01_西南生涯学習センター(65歳以上)</v>
+      <c r="C192" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="D192" s="35" t="b">
         <v>1</v>
@@ -13683,15 +13716,15 @@
         <v>2021-08-05T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="193" spans="1:20">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A193" s="19">
         <v>4</v>
       </c>
       <c r="B193" s="3">
         <v>192</v>
       </c>
-      <c r="C193" s="26" t="str">
-        <v>7/14～8/01_西南生涯学習センター(65歳以上)</v>
+      <c r="C193" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="D193" s="41" t="b">
         <v>1</v>
@@ -13746,15 +13779,15 @@
         <v>2021-08-11T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="194" spans="1:20">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A194" s="19">
         <v>4</v>
       </c>
       <c r="B194" s="3">
         <v>193</v>
       </c>
-      <c r="C194" s="26" t="str">
-        <v>7/14～8/01_西南生涯学習センター(65歳以上)</v>
+      <c r="C194" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="D194" s="35" t="b">
         <v>1</v>
@@ -13809,15 +13842,15 @@
         <v>2021-08-18T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="195" spans="1:20">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A195" s="19">
         <v>4</v>
       </c>
       <c r="B195" s="3">
         <v>194</v>
       </c>
-      <c r="C195" s="26" t="str">
-        <v>7/14～8/01_西南生涯学習センター(65歳以上)</v>
+      <c r="C195" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="D195" s="35" t="b">
         <v>1</v>
@@ -13872,15 +13905,15 @@
         <v>2021-08-19T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="196" spans="1:20">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A196" s="19">
         <v>4</v>
       </c>
       <c r="B196" s="3">
         <v>195</v>
       </c>
-      <c r="C196" s="27" t="str">
-        <v>7/14～8/01_西南生涯学習センター(65歳以上)</v>
+      <c r="C196" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="D196" s="36" t="b">
         <v>1</v>
@@ -13935,15 +13968,15 @@
         <v>2021-07-17T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="197" spans="1:20">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A197" s="19">
         <v>4</v>
       </c>
       <c r="B197" s="3">
         <v>196</v>
       </c>
-      <c r="C197" s="27" t="str">
-        <v>7/14～8/01_西南生涯学習センター(65歳以上)</v>
+      <c r="C197" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="D197" s="42" t="b">
         <v>1</v>
@@ -13998,15 +14031,15 @@
         <v>2021-07-31T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="198" spans="1:20">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A198" s="19">
         <v>4</v>
       </c>
       <c r="B198" s="3">
         <v>197</v>
       </c>
-      <c r="C198" s="28" t="str">
-        <v>7/14～8/01_西南生涯学習センター(65歳以上)</v>
+      <c r="C198" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="D198" s="37" t="b">
         <v>1</v>
@@ -14061,15 +14094,15 @@
         <v>2021-08-07T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="199" spans="1:20">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A199" s="19">
         <v>4</v>
       </c>
       <c r="B199" s="3">
         <v>198</v>
       </c>
-      <c r="C199" s="28" t="str">
-        <v>7/14～8/01_西南生涯学習センター(65歳以上)</v>
+      <c r="C199" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="D199" s="42" t="b">
         <v>1</v>
@@ -14124,15 +14157,15 @@
         <v>2021-08-21T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="200" spans="1:20">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A200" s="19">
         <v>4</v>
       </c>
       <c r="B200" s="3">
         <v>199</v>
       </c>
-      <c r="C200" s="29" t="str">
-        <v>7/14～8/01_西南生涯学習センター(65歳以上)</v>
+      <c r="C200" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="D200" s="38" t="b">
         <v>1</v>
@@ -14191,15 +14224,15 @@
         <v>2021-07-18T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="201" spans="1:20">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A201" s="19">
         <v>4</v>
       </c>
       <c r="B201" s="3">
         <v>200</v>
       </c>
-      <c r="C201" s="29" t="str">
-        <v>7/14～8/01_西南生涯学習センター(65歳以上)</v>
+      <c r="C201" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="D201" s="43" t="b">
         <v>1</v>
@@ -14258,15 +14291,15 @@
         <v>2021-07-25T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="202" spans="1:20">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A202" s="19">
         <v>4</v>
       </c>
       <c r="B202" s="3">
         <v>201</v>
       </c>
-      <c r="C202" s="29" t="str">
-        <v>7/14～8/01_西南生涯学習センター(65歳以上)</v>
+      <c r="C202" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="D202" s="38" t="b">
         <v>1</v>
@@ -14325,15 +14358,15 @@
         <v>2021-08-01T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="203" spans="1:20">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A203" s="19">
         <v>4</v>
       </c>
       <c r="B203" s="3">
         <v>202</v>
       </c>
-      <c r="C203" s="30" t="str">
-        <v>7/14～8/01_西南生涯学習センター(65歳以上)</v>
+      <c r="C203" s="30" t="s">
+        <v>39</v>
       </c>
       <c r="D203" s="39" t="b">
         <v>1</v>
@@ -14392,15 +14425,15 @@
         <v>2021-08-08T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="204" spans="1:20">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A204" s="19">
         <v>4</v>
       </c>
       <c r="B204" s="3">
         <v>203</v>
       </c>
-      <c r="C204" s="30" t="str">
-        <v>7/14～8/01_西南生涯学習センター(65歳以上)</v>
+      <c r="C204" s="30" t="s">
+        <v>39</v>
       </c>
       <c r="D204" s="43" t="b">
         <v>1</v>
@@ -14459,15 +14492,15 @@
         <v>2021-08-15T13:50:00.000+9</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="14.25">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A205" s="20">
         <v>4</v>
       </c>
       <c r="B205" s="22">
         <v>204</v>
       </c>
-      <c r="C205" s="31" t="str">
-        <v>7/14～8/01_西南生涯学習センター(65歳以上)</v>
+      <c r="C205" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="D205" s="40" t="b">
         <v>1</v>
@@ -14529,19 +14562,19 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
@@ -14554,7 +14587,7 @@
     <col min="16" max="19" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="27">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -14613,7 +14646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -14651,10 +14684,10 @@
         <v>120</v>
       </c>
       <c r="M2" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N2" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2" s="59" t="str">
         <f t="shared" ref="O2:O22" si="0">B2&amp;"/"&amp;TEXT(D2,"yyyy-mm-dd")</f>
@@ -14677,7 +14710,7 @@
         <v>2021-06-09T13:30:00.000+9</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1">
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -14715,10 +14748,10 @@
         <v>120</v>
       </c>
       <c r="M3" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N3" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O3" s="59" t="str">
         <f t="shared" si="0"/>
@@ -14741,7 +14774,7 @@
         <v>2021-06-16T13:30:00.000+9</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1">
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -14779,10 +14812,10 @@
         <v>120</v>
       </c>
       <c r="M4" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4" s="59" t="str">
         <f t="shared" si="0"/>
@@ -14805,7 +14838,7 @@
         <v>2021-06-09T13:30:00.000+9</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="1" customFormat="1">
+    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -14843,10 +14876,10 @@
         <v>120</v>
       </c>
       <c r="M5" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O5" s="59" t="str">
         <f t="shared" si="0"/>
@@ -14869,7 +14902,7 @@
         <v>2021-06-16T13:30:00.000+9</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="1" customFormat="1">
+    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -14907,10 +14940,10 @@
         <v>120</v>
       </c>
       <c r="M6" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6" s="59" t="str">
         <f t="shared" si="0"/>
@@ -14933,7 +14966,7 @@
         <v>2021-06-09T13:30:00.000+9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="1" customFormat="1">
+    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -14971,10 +15004,10 @@
         <v>120</v>
       </c>
       <c r="M7" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N7" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O7" s="59" t="str">
         <f t="shared" si="0"/>
@@ -14997,12 +15030,12 @@
         <v>2021-06-16T13:30:00.000+9</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="1" customFormat="1">
+    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="str">
-        <v>7/14～8/01_総合保健福祉センター(65歳以上)</v>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C8" s="6" t="b">
         <v>1</v>
@@ -15035,10 +15068,10 @@
         <v>120</v>
       </c>
       <c r="M8" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O8" s="59" t="str">
         <f t="shared" si="0"/>
@@ -15061,12 +15094,12 @@
         <v>2021-06-09T13:30:00.000+9</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="1" customFormat="1">
+    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="str">
-        <v>7/14～8/01_総合保健福祉センター(65歳以上)</v>
+      <c r="B9" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C9" s="6" t="b">
         <v>1</v>
@@ -15099,10 +15132,10 @@
         <v>120</v>
       </c>
       <c r="M9" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N9" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O9" s="59" t="str">
         <f t="shared" si="0"/>
@@ -15125,12 +15158,12 @@
         <v>2021-06-16T13:30:00.000+9</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="1" customFormat="1">
+    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="str">
-        <v>7/14～8/01_総合保健福祉センター(65歳以上)</v>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C10" s="6" t="b">
         <v>1</v>
@@ -15163,10 +15196,10 @@
         <v>120</v>
       </c>
       <c r="M10" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O10" s="59" t="str">
         <f t="shared" si="0"/>
@@ -15189,12 +15222,12 @@
         <v>2021-06-23T13:30:00.000+9</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="1" customFormat="1">
+    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="str">
-        <v>7/14～8/01_総合保健福祉センター(65歳以上)</v>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C11" s="6" t="b">
         <v>1</v>
@@ -15227,10 +15260,10 @@
         <v>120</v>
       </c>
       <c r="M11" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O11" s="59" t="str">
         <f t="shared" si="0"/>
@@ -15253,12 +15286,12 @@
         <v>2021-06-30T13:30:00.000+9</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="1" customFormat="1">
+    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="str">
-        <v>7/14～8/01_総合保健福祉センター(65歳以上)</v>
+      <c r="B12" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C12" s="6" t="b">
         <v>1</v>
@@ -15291,10 +15324,10 @@
         <v>120</v>
       </c>
       <c r="M12" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O12" s="59" t="str">
         <f t="shared" si="0"/>
@@ -15317,12 +15350,12 @@
         <v>2021-07-07T13:30:00.000+9</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="1" customFormat="1">
+    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="str">
-        <v>7/14～8/01_東生涯学習センター(65歳以上)</v>
+      <c r="B13" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C13" s="6" t="b">
         <v>1</v>
@@ -15355,10 +15388,10 @@
         <v>120</v>
       </c>
       <c r="M13" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O13" s="59" t="str">
         <f t="shared" si="0"/>
@@ -15381,12 +15414,12 @@
         <v>2021-06-09T13:30:00.000+9</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="1" customFormat="1">
+    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="str">
-        <v>7/14～8/01_東生涯学習センター(65歳以上)</v>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C14" s="6" t="b">
         <v>1</v>
@@ -15419,10 +15452,10 @@
         <v>120</v>
       </c>
       <c r="M14" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O14" s="59" t="str">
         <f t="shared" si="0"/>
@@ -15445,12 +15478,12 @@
         <v>2021-06-16T13:30:00.000+9</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="1" customFormat="1">
+    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="str">
-        <v>7/14～8/01_東生涯学習センター(65歳以上)</v>
+      <c r="B15" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C15" s="6" t="b">
         <v>1</v>
@@ -15483,10 +15516,10 @@
         <v>120</v>
       </c>
       <c r="M15" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O15" s="59" t="str">
         <f t="shared" si="0"/>
@@ -15509,12 +15542,12 @@
         <v>2021-06-23T13:30:00.000+9</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="1" customFormat="1">
+    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="str">
-        <v>7/14～8/01_東生涯学習センター(65歳以上)</v>
+      <c r="B16" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C16" s="6" t="b">
         <v>1</v>
@@ -15547,10 +15580,10 @@
         <v>120</v>
       </c>
       <c r="M16" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O16" s="59" t="str">
         <f t="shared" si="0"/>
@@ -15573,12 +15606,12 @@
         <v>2021-06-30T13:30:00.000+9</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="1" customFormat="1">
+    <row r="17" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="str">
-        <v>7/14～8/01_東生涯学習センター(65歳以上)</v>
+      <c r="B17" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C17" s="6" t="b">
         <v>1</v>
@@ -15611,10 +15644,10 @@
         <v>120</v>
       </c>
       <c r="M17" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N17" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O17" s="59" t="str">
         <f t="shared" si="0"/>
@@ -15637,12 +15670,12 @@
         <v>2021-07-07T13:30:00.000+9</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="1" customFormat="1">
+    <row r="18" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="str">
-        <v>7/14～8/01_西南生涯学習センター(65歳以上)</v>
+      <c r="B18" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C18" s="6" t="b">
         <v>1</v>
@@ -15675,10 +15708,10 @@
         <v>120</v>
       </c>
       <c r="M18" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N18" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O18" s="59" t="str">
         <f t="shared" si="0"/>
@@ -15701,12 +15734,12 @@
         <v>2021-06-09T13:30:00.000+9</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="1" customFormat="1">
+    <row r="19" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="str">
-        <v>7/14～8/01_西南生涯学習センター(65歳以上)</v>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C19" s="6" t="b">
         <v>1</v>
@@ -15739,10 +15772,10 @@
         <v>120</v>
       </c>
       <c r="M19" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O19" s="59" t="str">
         <f t="shared" si="0"/>
@@ -15765,12 +15798,12 @@
         <v>2021-06-16T13:30:00.000+9</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="1" customFormat="1">
+    <row r="20" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="str">
-        <v>7/14～8/01_西南生涯学習センター(65歳以上)</v>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="6" t="b">
         <v>1</v>
@@ -15803,10 +15836,10 @@
         <v>120</v>
       </c>
       <c r="M20" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N20" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O20" s="59" t="str">
         <f t="shared" si="0"/>
@@ -15829,12 +15862,12 @@
         <v>2021-06-23T13:30:00.000+9</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="1" customFormat="1">
+    <row r="21" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="str">
-        <v>7/14～8/01_西南生涯学習センター(65歳以上)</v>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C21" s="6" t="b">
         <v>1</v>
@@ -15867,10 +15900,10 @@
         <v>120</v>
       </c>
       <c r="M21" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N21" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O21" s="59" t="str">
         <f t="shared" si="0"/>
@@ -15893,12 +15926,12 @@
         <v>2021-06-30T13:30:00.000+9</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="1" customFormat="1">
+    <row r="22" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="str">
-        <v>7/14～8/01_西南生涯学習センター(65歳以上)</v>
+      <c r="B22" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C22" s="6" t="b">
         <v>1</v>
@@ -15931,10 +15964,10 @@
         <v>120</v>
       </c>
       <c r="M22" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O22" s="59" t="str">
         <f t="shared" si="0"/>
@@ -15960,6 +15993,477 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="44.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="26.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="36">
+        <v>44349</v>
+      </c>
+      <c r="E2" s="45">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F2" s="45">
+        <v>0.5625</v>
+      </c>
+      <c r="G2" s="45">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H2" s="45">
+        <v>0.5625</v>
+      </c>
+      <c r="I2" s="25">
+        <v>10</v>
+      </c>
+      <c r="J2" s="25">
+        <v>0</v>
+      </c>
+      <c r="K2" s="25">
+        <v>0</v>
+      </c>
+      <c r="L2" s="25">
+        <v>120</v>
+      </c>
+      <c r="M2" s="25">
+        <v>3</v>
+      </c>
+      <c r="N2" s="25">
+        <v>3</v>
+      </c>
+      <c r="O2" s="59" t="str">
+        <f t="shared" ref="O2:O7" si="0">B2&amp;"/"&amp;TEXT(D2,"yyyy-mm-dd")</f>
+        <v>6/23～7/11_総合保健福祉センター(65歳以上)/2021-06-02</v>
+      </c>
+      <c r="P2" s="9" t="str">
+        <f t="shared" ref="P2:P7" si="1">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(E2,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-06-02T13:20:00.000+9</v>
+      </c>
+      <c r="Q2" s="9" t="str">
+        <f t="shared" ref="Q2:Q7" si="2">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F2,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-06-02T13:30:00.000+9</v>
+      </c>
+      <c r="R2" s="9" t="str">
+        <f t="shared" ref="R2:R7" si="3">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G2,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-06-02T13:20:00.000+9</v>
+      </c>
+      <c r="S2" s="9" t="str">
+        <f t="shared" ref="S2:S7" si="4">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H2,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-06-02T13:30:00.000+9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="36">
+        <v>44349</v>
+      </c>
+      <c r="E3" s="45">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F3" s="45">
+        <v>0.5625</v>
+      </c>
+      <c r="G3" s="45">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H3" s="45">
+        <v>0.5625</v>
+      </c>
+      <c r="I3" s="25">
+        <v>10</v>
+      </c>
+      <c r="J3" s="25">
+        <v>0</v>
+      </c>
+      <c r="K3" s="25">
+        <v>0</v>
+      </c>
+      <c r="L3" s="25">
+        <v>120</v>
+      </c>
+      <c r="M3" s="25">
+        <v>3</v>
+      </c>
+      <c r="N3" s="25">
+        <v>3</v>
+      </c>
+      <c r="O3" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>6/23～7/11_東生涯学習センター(65歳以上)/2021-06-02</v>
+      </c>
+      <c r="P3" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-06-02T13:20:00.000+9</v>
+      </c>
+      <c r="Q3" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>2021-06-02T13:30:00.000+9</v>
+      </c>
+      <c r="R3" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>2021-06-02T13:20:00.000+9</v>
+      </c>
+      <c r="S3" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>2021-06-02T13:30:00.000+9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="36">
+        <v>44349</v>
+      </c>
+      <c r="E4" s="45">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F4" s="45">
+        <v>0.5625</v>
+      </c>
+      <c r="G4" s="45">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H4" s="45">
+        <v>0.5625</v>
+      </c>
+      <c r="I4" s="25">
+        <v>10</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0</v>
+      </c>
+      <c r="K4" s="25">
+        <v>0</v>
+      </c>
+      <c r="L4" s="25">
+        <v>120</v>
+      </c>
+      <c r="M4" s="25">
+        <v>3</v>
+      </c>
+      <c r="N4" s="25">
+        <v>3</v>
+      </c>
+      <c r="O4" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>6/23～7/11_西南生涯学習センター(65歳以上)/2021-06-02</v>
+      </c>
+      <c r="P4" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-06-02T13:20:00.000+9</v>
+      </c>
+      <c r="Q4" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>2021-06-02T13:30:00.000+9</v>
+      </c>
+      <c r="R4" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>2021-06-02T13:20:00.000+9</v>
+      </c>
+      <c r="S4" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>2021-06-02T13:30:00.000+9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="36">
+        <v>44349</v>
+      </c>
+      <c r="E5" s="45">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F5" s="45">
+        <v>0.5625</v>
+      </c>
+      <c r="G5" s="45">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H5" s="45">
+        <v>0.5625</v>
+      </c>
+      <c r="I5" s="25">
+        <v>10</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0</v>
+      </c>
+      <c r="K5" s="25">
+        <v>0</v>
+      </c>
+      <c r="L5" s="25">
+        <v>120</v>
+      </c>
+      <c r="M5" s="25">
+        <v>3</v>
+      </c>
+      <c r="N5" s="25">
+        <v>3</v>
+      </c>
+      <c r="O5" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>7/14～8/01_総合保健福祉センター(65歳以上)/2021-06-02</v>
+      </c>
+      <c r="P5" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-06-02T13:20:00.000+9</v>
+      </c>
+      <c r="Q5" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>2021-06-02T13:30:00.000+9</v>
+      </c>
+      <c r="R5" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>2021-06-02T13:20:00.000+9</v>
+      </c>
+      <c r="S5" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>2021-06-02T13:30:00.000+9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="36">
+        <v>44349</v>
+      </c>
+      <c r="E6" s="45">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F6" s="45">
+        <v>0.5625</v>
+      </c>
+      <c r="G6" s="45">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H6" s="45">
+        <v>0.5625</v>
+      </c>
+      <c r="I6" s="25">
+        <v>10</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0</v>
+      </c>
+      <c r="K6" s="25">
+        <v>0</v>
+      </c>
+      <c r="L6" s="25">
+        <v>120</v>
+      </c>
+      <c r="M6" s="25">
+        <v>3</v>
+      </c>
+      <c r="N6" s="25">
+        <v>3</v>
+      </c>
+      <c r="O6" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>7/14～8/01_東生涯学習センター(65歳以上)/2021-06-02</v>
+      </c>
+      <c r="P6" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-06-02T13:20:00.000+9</v>
+      </c>
+      <c r="Q6" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>2021-06-02T13:30:00.000+9</v>
+      </c>
+      <c r="R6" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>2021-06-02T13:20:00.000+9</v>
+      </c>
+      <c r="S6" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>2021-06-02T13:30:00.000+9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="36">
+        <v>44349</v>
+      </c>
+      <c r="E7" s="45">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F7" s="45">
+        <v>0.5625</v>
+      </c>
+      <c r="G7" s="45">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H7" s="45">
+        <v>0.5625</v>
+      </c>
+      <c r="I7" s="25">
+        <v>10</v>
+      </c>
+      <c r="J7" s="25">
+        <v>0</v>
+      </c>
+      <c r="K7" s="25">
+        <v>0</v>
+      </c>
+      <c r="L7" s="25">
+        <v>120</v>
+      </c>
+      <c r="M7" s="25">
+        <v>3</v>
+      </c>
+      <c r="N7" s="25">
+        <v>3</v>
+      </c>
+      <c r="O7" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>7/14～8/01_西南生涯学習センター(65歳以上)/2021-06-02</v>
+      </c>
+      <c r="P7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-06-02T13:20:00.000+9</v>
+      </c>
+      <c r="Q7" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>2021-06-02T13:30:00.000+9</v>
+      </c>
+      <c r="R7" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>2021-06-02T13:20:00.000+9</v>
+      </c>
+      <c r="S7" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>2021-06-02T13:30:00.000+9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>